--- a/exported_macro_dataframe.xlsx
+++ b/exported_macro_dataframe.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yash0\Desktop\Datathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF5884-3D9E-492E-8DEB-685B3BF4482B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6D6C1-D652-4BFB-8473-03DE133072AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$49</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -74,9 +77,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,12 +129,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,16 +479,22 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -538,7 +547,7 @@
       <c r="A2" s="1">
         <v>219</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>43131</v>
       </c>
       <c r="C2">
@@ -591,7 +600,7 @@
       <c r="A3" s="1">
         <v>220</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>43159</v>
       </c>
       <c r="C3">
@@ -644,7 +653,7 @@
       <c r="A4" s="1">
         <v>221</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>43190</v>
       </c>
       <c r="C4">
@@ -697,7 +706,7 @@
       <c r="A5" s="1">
         <v>222</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>43220</v>
       </c>
       <c r="C5">
@@ -750,7 +759,7 @@
       <c r="A6" s="1">
         <v>223</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>43251</v>
       </c>
       <c r="C6">
@@ -803,7 +812,7 @@
       <c r="A7" s="1">
         <v>224</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>43281</v>
       </c>
       <c r="C7">
@@ -856,7 +865,7 @@
       <c r="A8" s="1">
         <v>225</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>43312</v>
       </c>
       <c r="C8">
@@ -909,7 +918,7 @@
       <c r="A9" s="1">
         <v>226</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>43343</v>
       </c>
       <c r="C9">
@@ -962,7 +971,7 @@
       <c r="A10" s="1">
         <v>227</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>43373</v>
       </c>
       <c r="C10">
@@ -1015,7 +1024,7 @@
       <c r="A11" s="1">
         <v>228</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>43404</v>
       </c>
       <c r="C11">
@@ -1068,7 +1077,7 @@
       <c r="A12" s="1">
         <v>229</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>43434</v>
       </c>
       <c r="C12">
@@ -1121,7 +1130,7 @@
       <c r="A13" s="1">
         <v>230</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>43465</v>
       </c>
       <c r="C13">
@@ -1174,7 +1183,7 @@
       <c r="A14" s="1">
         <v>231</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>43496</v>
       </c>
       <c r="C14">
@@ -1227,7 +1236,7 @@
       <c r="A15" s="1">
         <v>232</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>43524</v>
       </c>
       <c r="C15">
@@ -1280,7 +1289,7 @@
       <c r="A16" s="1">
         <v>233</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>43555</v>
       </c>
       <c r="C16">
@@ -1333,7 +1342,7 @@
       <c r="A17" s="1">
         <v>234</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>43585</v>
       </c>
       <c r="C17">
@@ -1386,7 +1395,7 @@
       <c r="A18" s="1">
         <v>235</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>43616</v>
       </c>
       <c r="C18">
@@ -1439,7 +1448,7 @@
       <c r="A19" s="1">
         <v>236</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>43646</v>
       </c>
       <c r="C19">
@@ -1492,7 +1501,7 @@
       <c r="A20" s="1">
         <v>237</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>43677</v>
       </c>
       <c r="C20">
@@ -1545,7 +1554,7 @@
       <c r="A21" s="1">
         <v>238</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>43708</v>
       </c>
       <c r="C21">
@@ -1598,7 +1607,7 @@
       <c r="A22" s="1">
         <v>239</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>43738</v>
       </c>
       <c r="C22">
@@ -1651,7 +1660,7 @@
       <c r="A23" s="1">
         <v>240</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>43769</v>
       </c>
       <c r="C23">
@@ -1704,7 +1713,7 @@
       <c r="A24" s="1">
         <v>241</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>43799</v>
       </c>
       <c r="C24">
@@ -1757,7 +1766,7 @@
       <c r="A25" s="1">
         <v>242</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>43830</v>
       </c>
       <c r="C25">
@@ -1810,7 +1819,7 @@
       <c r="A26" s="1">
         <v>243</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>43861</v>
       </c>
       <c r="C26">
@@ -1863,7 +1872,7 @@
       <c r="A27" s="1">
         <v>244</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>43890</v>
       </c>
       <c r="C27">
@@ -1916,7 +1925,7 @@
       <c r="A28" s="1">
         <v>245</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>43921</v>
       </c>
       <c r="C28">
@@ -1969,7 +1978,7 @@
       <c r="A29" s="1">
         <v>246</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>43951</v>
       </c>
       <c r="C29">
@@ -2022,7 +2031,7 @@
       <c r="A30" s="1">
         <v>247</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>43982</v>
       </c>
       <c r="C30">
@@ -2075,7 +2084,7 @@
       <c r="A31" s="1">
         <v>248</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>44012</v>
       </c>
       <c r="C31">
@@ -2128,7 +2137,7 @@
       <c r="A32" s="1">
         <v>249</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>44043</v>
       </c>
       <c r="C32">
@@ -2181,7 +2190,7 @@
       <c r="A33" s="1">
         <v>250</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>44074</v>
       </c>
       <c r="C33">
@@ -2234,7 +2243,7 @@
       <c r="A34" s="1">
         <v>251</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>44104</v>
       </c>
       <c r="C34">
@@ -2287,7 +2296,7 @@
       <c r="A35" s="1">
         <v>252</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>44135</v>
       </c>
       <c r="C35">
@@ -2340,7 +2349,7 @@
       <c r="A36" s="1">
         <v>253</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>44165</v>
       </c>
       <c r="C36">
@@ -2393,7 +2402,7 @@
       <c r="A37" s="1">
         <v>254</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>44196</v>
       </c>
       <c r="C37">
@@ -2446,7 +2455,7 @@
       <c r="A38" s="1">
         <v>255</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>44227</v>
       </c>
       <c r="C38">
@@ -2499,7 +2508,7 @@
       <c r="A39" s="1">
         <v>256</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>44255</v>
       </c>
       <c r="C39">
@@ -2552,7 +2561,7 @@
       <c r="A40" s="1">
         <v>257</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>44286</v>
       </c>
       <c r="C40">
@@ -2605,7 +2614,7 @@
       <c r="A41" s="1">
         <v>258</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>44316</v>
       </c>
       <c r="C41">
@@ -2658,7 +2667,7 @@
       <c r="A42" s="1">
         <v>259</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>44347</v>
       </c>
       <c r="C42">
@@ -2711,7 +2720,7 @@
       <c r="A43" s="1">
         <v>260</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>44377</v>
       </c>
       <c r="C43">
@@ -2764,7 +2773,7 @@
       <c r="A44" s="1">
         <v>261</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>44408</v>
       </c>
       <c r="C44">
@@ -2817,7 +2826,7 @@
       <c r="A45" s="1">
         <v>262</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>44439</v>
       </c>
       <c r="C45">
@@ -2870,7 +2879,7 @@
       <c r="A46" s="1">
         <v>263</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>44469</v>
       </c>
       <c r="C46">
@@ -2923,7 +2932,7 @@
       <c r="A47" s="1">
         <v>264</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>44500</v>
       </c>
       <c r="C47">
@@ -2976,7 +2985,7 @@
       <c r="A48" s="1">
         <v>265</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>44530</v>
       </c>
       <c r="C48">
@@ -3029,7 +3038,7 @@
       <c r="A49" s="1">
         <v>266</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>44561</v>
       </c>
       <c r="C49">
